--- a/Muscle Cola(1-27).xlsx
+++ b/Muscle Cola(1-27).xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilehatch/Dropbox/Teaching/Ent Analytics Book/shiny_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{229D191C-428D-EF45-A11A-A5A4EBB00704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0B41D9-D129-4847-BA1E-3823E4721120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33860" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -222,9 +234,6 @@
     <t xml:space="preserve">helping me build muscle </t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
@@ -375,9 +384,6 @@
     <t>Fill in missed calories from small meals throughout the day.</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -472,6 +478,12 @@
   </si>
   <si>
     <t>Gain muscle</t>
+  </si>
+  <si>
+    <t>wtp</t>
+  </si>
+  <si>
+    <t>Q0</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -510,74 +522,138 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -596,30 +672,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U29" totalsRowCount="1">
   <autoFilter ref="A1:U28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Do you supplement protein?" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Do you aspire to supplement protein?" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Thank you for your time. Since this survey is specifically for those who supplement with protein, there’s no need to continue. We appreciate your time—have a great day!" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="What is your purpose for supplementing protein?" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="When do you consume protein during your day?" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Where do you consume protein during your day?" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="What is the role of protein in your life?" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="On a scale from 1 to 10, how would you rate Muscle Cola?" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="If Muscle Cola were free, how many servings would you realistically consume in a week?" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What is the highest price at which your consumption would remain unchanged compared to free?" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What is the most you would be willing to pay for a serving of Muscle Cola?" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="At that price point you just specified, how many servings of Muscle Cola would you consume a week?" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="What is your gender?" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="What is your age?" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which of the following best represents your annual household income?" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="41" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="40" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="39" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="38" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="37" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="36" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Do you supplement protein?" dataDxfId="35" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Do you aspire to supplement protein?" dataDxfId="34" totalsRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Thank you for your time. Since this survey is specifically for those who supplement with protein, there’s no need to continue. We appreciate your time—have a great day!" dataDxfId="33" totalsRowDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="What is your purpose for supplementing protein?" dataDxfId="32" totalsRowDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="When do you consume protein during your day?" dataDxfId="31" totalsRowDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Where do you consume protein during your day?" dataDxfId="30" totalsRowDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="What is the role of protein in your life?" dataDxfId="29" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="On a scale from 1 to 10, how would you rate Muscle Cola?" dataDxfId="28" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="If Muscle Cola were free, how many servings would you realistically consume in a week?" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(Table1[If Muscle Cola were free, how many servings would you realistically consume in a week?])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What is the highest price at which your consumption would remain unchanged compared to free?" dataDxfId="26" totalsRowDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What is the most you would be willing to pay for a serving of Muscle Cola?" dataDxfId="25" totalsRowDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="At that price point you just specified, how many servings of Muscle Cola would you consume a week?" dataDxfId="24" totalsRowDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="What is your gender?" dataDxfId="23" totalsRowDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="What is your age?" dataDxfId="22" totalsRowDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which of the following best represents your annual household income?" dataDxfId="21" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -922,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1036,8 +1114,8 @@
       <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
+      <c r="O2" s="2">
+        <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>31</v>
@@ -1093,8 +1171,8 @@
       <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
+      <c r="O3" s="2">
+        <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>42</v>
@@ -1201,8 +1279,8 @@
       <c r="N6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>31</v>
+      <c r="O6" s="2">
+        <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>51</v>
@@ -1258,8 +1336,8 @@
       <c r="N7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>51</v>
+      <c r="O7" s="2">
+        <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>57</v>
@@ -1315,14 +1393,14 @@
       <c r="N8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>65</v>
+      <c r="O8" s="2">
+        <v>30</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>30</v>
@@ -1334,7 +1412,7 @@
         <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1348,10 +1426,10 @@
         <v>45700.378506944398</v>
       </c>
       <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
@@ -1364,34 +1442,34 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>71</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>65</v>
+      <c r="O9" s="2">
+        <v>30</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="S9" t="s">
         <v>59</v>
       </c>
       <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>74</v>
-      </c>
-      <c r="U9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1405,10 +1483,10 @@
         <v>45700.378506944398</v>
       </c>
       <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
@@ -1421,16 +1499,16 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>42</v>
@@ -1462,10 +1540,10 @@
         <v>45700.379606481503</v>
       </c>
       <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
@@ -1478,22 +1556,22 @@
         <v>39</v>
       </c>
       <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" t="s">
         <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>83</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
+      <c r="O11" s="2">
+        <v>3</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>32</v>
@@ -1505,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="U11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1519,10 +1597,10 @@
         <v>45700.382384259297</v>
       </c>
       <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
@@ -1532,19 +1610,19 @@
         <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="O12" s="2">
+        <v>7</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>31</v>
@@ -1553,7 +1631,7 @@
         <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s">
         <v>59</v>
@@ -1576,10 +1654,10 @@
         <v>45700.421724537002</v>
       </c>
       <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
@@ -1600,10 +1678,10 @@
         <v>45700.422662037003</v>
       </c>
       <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
@@ -1616,16 +1694,16 @@
         <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>73</v>
+      <c r="O14" s="2">
+        <v>7</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>42</v>
@@ -1657,10 +1735,10 @@
         <v>45700.422800925902</v>
       </c>
       <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
         <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
@@ -1673,25 +1751,25 @@
         <v>39</v>
       </c>
       <c r="L15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" t="s">
         <v>98</v>
-      </c>
-      <c r="M15" t="s">
-        <v>99</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>84</v>
+      <c r="O15" s="2">
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
         <v>59</v>
@@ -1700,7 +1778,7 @@
         <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1714,10 +1792,10 @@
         <v>45700.423425925903</v>
       </c>
       <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
         <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
@@ -1733,19 +1811,19 @@
         <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>31</v>
+      <c r="O16" s="2">
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>31</v>
@@ -1771,10 +1849,10 @@
         <v>45700.423460648097</v>
       </c>
       <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
@@ -1787,22 +1865,22 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="2">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Q17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>32</v>
@@ -1828,10 +1906,10 @@
         <v>45700.423506944397</v>
       </c>
       <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
         <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" t="s">
@@ -1844,16 +1922,16 @@
         <v>26</v>
       </c>
       <c r="L18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" t="s">
         <v>111</v>
       </c>
-      <c r="M18" t="s">
-        <v>112</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>42</v>
@@ -1885,10 +1963,10 @@
         <v>45700.423715277801</v>
       </c>
       <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
         <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" t="s">
@@ -1904,19 +1982,19 @@
         <v>40</v>
       </c>
       <c r="M19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="2">
+        <v>35</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="Q19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>31</v>
@@ -1942,10 +2020,10 @@
         <v>45700.4238541667</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
@@ -1961,13 +2039,13 @@
         <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>42</v>
+      <c r="O20" s="2">
+        <v>2</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -1999,10 +2077,10 @@
         <v>45700.4238541667</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
@@ -2012,19 +2090,19 @@
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="O21" s="2">
+        <v>4</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>31</v>
@@ -2036,10 +2114,10 @@
         <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2053,10 +2131,10 @@
         <v>45700.424143518503</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
@@ -2072,13 +2150,13 @@
         <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>31</v>
+      <c r="O22" s="2">
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>57</v>
@@ -2096,7 +2174,7 @@
         <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2110,10 +2188,10 @@
         <v>45700.424386574101</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" t="s">
@@ -2126,22 +2204,22 @@
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>31</v>
@@ -2167,10 +2245,10 @@
         <v>45700.424421296302</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" t="s">
@@ -2186,19 +2264,19 @@
         <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>30</v>
+      <c r="O24" s="2">
+        <v>5</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>42</v>
@@ -2210,7 +2288,7 @@
         <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
@@ -2227,10 +2305,10 @@
         <v>45700.424444444398</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" t="s">
@@ -2243,22 +2321,22 @@
         <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>32</v>
@@ -2284,10 +2362,10 @@
         <v>45700.424490740697</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
@@ -2303,13 +2381,13 @@
         <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>30</v>
+      <c r="O26" s="2">
+        <v>5</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>42</v>
@@ -2327,7 +2405,7 @@
         <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2341,10 +2419,10 @@
         <v>45700.4266319444</v>
       </c>
       <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
@@ -2357,16 +2435,16 @@
         <v>39</v>
       </c>
       <c r="L27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>73</v>
+        <v>143</v>
+      </c>
+      <c r="O27" s="2">
+        <v>7</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2398,10 +2476,10 @@
         <v>45700.427025463003</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" t="s">
@@ -2417,22 +2495,22 @@
         <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="O28" s="2">
+        <v>7</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s">
         <v>59</v>
@@ -2443,6 +2521,32 @@
       <c r="U28" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3">
+        <f>SUM(Table1[If Muscle Cola were free, how many servings would you realistically consume in a week?])</f>
+        <v>173</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,4 +2555,183 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DC89FE-83BB-DB4D-ADAC-AC92A19761E6}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.5</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C12">
+    <sortCondition descending="1" ref="C2:C12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>